--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F\fintech\slicer\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\fintech\slicer\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483D6E2-426D-4774-BA1D-27928CF4530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB72F2D-AFEB-4787-AFB0-CA466D7DB437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Nifty Customer Code" sheetId="3" r:id="rId1"/>
@@ -241,31 +241,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56BBC62-EA95-4B6D-92EC-85F629D38FCD}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E5"/>
@@ -620,97 +619,85 @@
     <col min="16" max="16" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>100</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>50</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>100</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>100</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>50</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>100</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,84 +718,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>100</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>50</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>100</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>1600</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>100</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>50</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>100</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2250B6-E8FC-45E0-9A56-3D55B4F47CC1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,161 +819,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>16850</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5">
         <v>16800</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>15900</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
         <v>15500</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7">
-        <v>44819</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7">
-        <v>44819</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6">
+        <v>44861</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6">
+        <v>44861</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>16850</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6">
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
         <v>16800</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>15900</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6">
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
         <v>15500</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7">
-        <v>44819</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7">
-        <v>44819</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6">
+        <v>44861</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <v>44861</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -998,163 +985,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50175DF6-624D-43DF-9C93-63F4CEDC772C}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>32800</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5">
+        <v>33000</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>32800</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
+        <v>32700</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6">
+        <v>44861</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6">
+        <v>44861</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
         <v>33000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
+        <v>33200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
-        <v>32800</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C7" s="5">
+        <v>33100</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6">
-        <v>32700</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
+        <v>33100</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7">
-        <v>44819</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7">
-        <v>44819</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>33000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6">
-        <v>33200</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>33100</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6">
-        <v>33100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7">
-        <v>44819</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7">
-        <v>44819</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6">
+        <v>44861</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <v>44861</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\fintech\slicer\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB72F2D-AFEB-4787-AFB0-CA466D7DB437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDE205-D91E-44E4-9AA2-01BA785AB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Nifty Customer Code" sheetId="3" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56BBC62-EA95-4B6D-92EC-85F629D38FCD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G2" s="16">
         <v>0</v>
@@ -807,7 +807,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,12 +887,12 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -966,11 +966,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50175DF6-624D-43DF-9C93-63F4CEDC772C}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,14 +1021,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>32800</v>
+        <v>37000</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1041,14 +1041,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>32800</v>
+        <v>37500</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5">
-        <v>32700</v>
+        <v>37500</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1089,14 +1089,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>33000</v>
+        <v>37700</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
-        <v>33200</v>
+        <v>37700</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1108,14 +1108,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>33100</v>
+        <v>38000</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5">
-        <v>33100</v>
+        <v>38000</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>44861</v>
+        <v>44889</v>
       </c>
       <c r="H9" s="2"/>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\fintech\slicer\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BDE205-D91E-44E4-9AA2-01BA785AB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99512B7D-8496-4631-B6C6-2BB85D53AE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Nifty Customer Code" sheetId="3" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56BBC62-EA95-4B6D-92EC-85F629D38FCD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,10 +659,10 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G2" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2250B6-E8FC-45E0-9A56-3D55B4F47CC1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,14 +845,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>16850</v>
+        <v>17500</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -866,14 +866,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>15900</v>
+        <v>17500</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -887,12 +887,12 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -917,14 +917,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>16850</v>
+        <v>17500</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -937,14 +937,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>15900</v>
+        <v>17500</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -966,11 +966,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -986,7 +986,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,14 +1021,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1041,14 +1041,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>37500</v>
+        <v>41000</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5">
-        <v>37500</v>
+        <v>41000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1089,14 +1089,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>37700</v>
+        <v>41000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
-        <v>37700</v>
+        <v>41000</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1108,14 +1108,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>38000</v>
+        <v>41000</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5">
-        <v>38000</v>
+        <v>41000</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>44889</v>
+        <v>45052</v>
       </c>
       <c r="H9" s="2"/>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\fintech\slicer\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fintech\slicer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99512B7D-8496-4631-B6C6-2BB85D53AE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C609FA-EF76-4843-8433-0A347C96419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00B789C7-067B-4DEF-90D2-F3A9B0B610CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Nifty Customer Code" sheetId="3" r:id="rId1"/>
     <sheet name="BNF Customer Code" sheetId="4" r:id="rId2"/>
-    <sheet name="Nifty" sheetId="1" r:id="rId3"/>
-    <sheet name="BNF" sheetId="2" r:id="rId4"/>
+    <sheet name="Finnifty Customer Code" sheetId="6" r:id="rId3"/>
+    <sheet name="FNF" sheetId="5" r:id="rId4"/>
+    <sheet name="Nifty" sheetId="1" r:id="rId5"/>
+    <sheet name="BNF" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>SELL</t>
   </si>
@@ -44,9 +46,6 @@
     <t>BUY</t>
   </si>
   <si>
-    <t>Qty Freeze</t>
-  </si>
-  <si>
     <t>Existing Strikes</t>
   </si>
   <si>
@@ -65,9 +64,6 @@
     <t>Existing Expiry</t>
   </si>
   <si>
-    <t>AOF019</t>
-  </si>
-  <si>
     <t>New Strikes</t>
   </si>
   <si>
@@ -93,13 +89,16 @@
   </si>
   <si>
     <t>Wait Time</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +121,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -607,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56BBC62-EA95-4B6D-92EC-85F629D38FCD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,30 +626,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="14">
         <v>100</v>
@@ -659,15 +664,15 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="14">
         <v>100</v>
@@ -681,7 +686,9 @@
       <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
@@ -700,6 +707,7 @@
       <c r="F5" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -709,7 +717,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,30 +727,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="14">
         <v>100</v>
@@ -757,15 +765,15 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="G2" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="14">
         <v>100</v>
@@ -779,7 +787,9 @@
       <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
@@ -803,11 +813,275 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8A2C13-FEE9-431B-9CC8-5457876D3212}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14">
+        <v>100</v>
+      </c>
+      <c r="C2" s="14">
+        <v>50</v>
+      </c>
+      <c r="D2" s="14">
+        <v>100</v>
+      </c>
+      <c r="E2" s="14">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14">
+        <v>100</v>
+      </c>
+      <c r="C3" s="14">
+        <v>50</v>
+      </c>
+      <c r="D3" s="14">
+        <v>100</v>
+      </c>
+      <c r="E3" s="14">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F167044-12A1-4DE7-BD2F-44B7DC0A7DB2}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>19700</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5">
+        <v>19700</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>19700</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
+        <v>19700</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6">
+        <v>45181</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6">
+        <v>45181</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>19700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
+        <v>19700</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19700</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
+        <v>19700</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6">
+        <v>45181</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <v>45181</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2250B6-E8FC-45E0-9A56-3D55B4F47CC1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -863,17 +1137,17 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -883,16 +1157,16 @@
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -911,20 +1185,20 @@
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -934,17 +1208,17 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5">
-        <v>17500</v>
+        <v>19400</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -962,15 +1236,15 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -981,12 +1255,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50175DF6-624D-43DF-9C93-63F4CEDC772C}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,33 +1276,33 @@
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1038,17 +1312,17 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1057,16 +1331,16 @@
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1083,20 +1357,20 @@
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1105,17 +1379,17 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5">
-        <v>41000</v>
+        <v>44400</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1131,15 +1405,15 @@
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
-        <v>45052</v>
+        <v>45176</v>
       </c>
       <c r="H9" s="2"/>
     </row>
